--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I751"/>
+  <dimension ref="A1:I752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26663,6 +26663,41 @@
         <v>19876200</v>
       </c>
     </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I752" t="n">
+        <v>63966800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I752"/>
+  <dimension ref="A1:I753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26698,6 +26698,41 @@
         <v>63966800</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I753" t="n">
+        <v>44160000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I753"/>
+  <dimension ref="A1:I754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26733,6 +26733,41 @@
         <v>44160000</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I754" t="n">
+        <v>11765800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I754"/>
+  <dimension ref="A1:I755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26768,6 +26768,41 @@
         <v>11765800</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I755" t="n">
+        <v>7759000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I755"/>
+  <dimension ref="A1:I756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26803,6 +26803,41 @@
         <v>7759000</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I756" t="n">
+        <v>46801600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I756"/>
+  <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26838,6 +26838,41 @@
         <v>46801600</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I757" t="n">
+        <v>17172400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I757"/>
+  <dimension ref="A1:I758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26873,6 +26873,41 @@
         <v>17172400</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I758" t="n">
+        <v>55548300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I758"/>
+  <dimension ref="A1:I759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26908,6 +26908,41 @@
         <v>55548300</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I759" t="n">
+        <v>19535700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I759"/>
+  <dimension ref="A1:I760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26943,6 +26943,41 @@
         <v>19535700</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G760" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I760" t="n">
+        <v>20705900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I760"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26978,6 +26978,41 @@
         <v>20705900</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I761" t="n">
+        <v>29477400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27013,6 +27013,41 @@
         <v>29477400</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G762" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I762" t="n">
+        <v>29972500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27048,6 +27048,41 @@
         <v>29972500</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I763" t="n">
+        <v>17759700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I763"/>
+  <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27083,6 +27083,76 @@
         <v>17759700</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I764" t="n">
+        <v>20961100</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I765" t="n">
+        <v>25246200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I765"/>
+  <dimension ref="A1:I767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27153,6 +27153,76 @@
         <v>25246200</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G766" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I766" t="n">
+        <v>28967900</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G767" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I767" t="n">
+        <v>34261800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I767"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27223,6 +27223,41 @@
         <v>34261800</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I768" t="n">
+        <v>23409500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I768"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27258,6 +27258,41 @@
         <v>23409500</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I769" t="n">
+        <v>12541500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I769"/>
+  <dimension ref="A1:I770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27293,6 +27293,41 @@
         <v>12541500</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I770" t="n">
+        <v>8124300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I770"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27328,6 +27328,41 @@
         <v>8124300</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I771" t="n">
+        <v>30024500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27363,6 +27363,76 @@
         <v>30024500</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G772" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I772" t="n">
+        <v>30432200</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G773" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I773" t="n">
+        <v>28416800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I773"/>
+  <dimension ref="A1:I774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27433,6 +27433,41 @@
         <v>28416800</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G774" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I774" t="n">
+        <v>21270900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27468,6 +27468,41 @@
         <v>21270900</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I775" t="n">
+        <v>35712500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24950,11 +24950,11 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24968,28 +24968,28 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>0.6</v>
+        <v>0.545</v>
       </c>
       <c r="F703" t="n">
-        <v>0.605</v>
+        <v>0.555</v>
       </c>
       <c r="G703" t="n">
-        <v>0.585</v>
+        <v>0.53</v>
       </c>
       <c r="H703" t="n">
-        <v>0.59</v>
+        <v>0.545</v>
       </c>
       <c r="I703" t="n">
-        <v>10859200</v>
+        <v>15209300</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -25003,28 +25003,28 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>0.59</v>
+        <v>0.545</v>
       </c>
       <c r="F704" t="n">
-        <v>0.605</v>
+        <v>0.55</v>
       </c>
       <c r="G704" t="n">
-        <v>0.59</v>
+        <v>0.535</v>
       </c>
       <c r="H704" t="n">
-        <v>0.595</v>
+        <v>0.545</v>
       </c>
       <c r="I704" t="n">
-        <v>6126500</v>
+        <v>12472900</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -25038,28 +25038,28 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="F705" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="G705" t="n">
-        <v>0.59</v>
+        <v>0.545</v>
       </c>
       <c r="H705" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="I705" t="n">
-        <v>33606700</v>
+        <v>30667800</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -25073,28 +25073,28 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="F706" t="n">
-        <v>0.64</v>
+        <v>0.585</v>
       </c>
       <c r="G706" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="H706" t="n">
-        <v>0.635</v>
+        <v>0.58</v>
       </c>
       <c r="I706" t="n">
-        <v>16288700</v>
+        <v>11679100</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -25108,28 +25108,28 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>0.635</v>
+        <v>0.58</v>
       </c>
       <c r="F707" t="n">
-        <v>0.635</v>
+        <v>0.58</v>
       </c>
       <c r="G707" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="H707" t="n">
-        <v>0.63</v>
+        <v>0.575</v>
       </c>
       <c r="I707" t="n">
-        <v>9797400</v>
+        <v>4244600</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -25143,28 +25143,28 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.63</v>
+        <v>0.575</v>
       </c>
       <c r="F708" t="n">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="G708" t="n">
-        <v>0.625</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H708" t="n">
-        <v>0.64</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I708" t="n">
-        <v>19880300</v>
+        <v>6340300</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -25178,28 +25178,28 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>0.645</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F709" t="n">
-        <v>0.645</v>
+        <v>0.57</v>
       </c>
       <c r="G709" t="n">
-        <v>0.635</v>
+        <v>0.555</v>
       </c>
       <c r="H709" t="n">
-        <v>0.64</v>
+        <v>0.555</v>
       </c>
       <c r="I709" t="n">
-        <v>8828300</v>
+        <v>6356200</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -25213,28 +25213,28 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.64</v>
+        <v>0.555</v>
       </c>
       <c r="F710" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="G710" t="n">
-        <v>0.635</v>
+        <v>0.555</v>
       </c>
       <c r="H710" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="I710" t="n">
-        <v>49167500</v>
+        <v>11499700</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -25248,28 +25248,28 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="F711" t="n">
-        <v>0.695</v>
+        <v>0.615</v>
       </c>
       <c r="G711" t="n">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="H711" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="I711" t="n">
-        <v>17417300</v>
+        <v>28204400</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -25283,28 +25283,28 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>0.695</v>
+        <v>0.6</v>
       </c>
       <c r="F712" t="n">
-        <v>0.73</v>
+        <v>0.605</v>
       </c>
       <c r="G712" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="H712" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="I712" t="n">
-        <v>31206700</v>
+        <v>10859200</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -25318,28 +25318,28 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.725</v>
+        <v>0.59</v>
       </c>
       <c r="F713" t="n">
-        <v>0.755</v>
+        <v>0.605</v>
       </c>
       <c r="G713" t="n">
-        <v>0.725</v>
+        <v>0.59</v>
       </c>
       <c r="H713" t="n">
-        <v>0.75</v>
+        <v>0.595</v>
       </c>
       <c r="I713" t="n">
-        <v>23022300</v>
+        <v>6126500</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -25353,28 +25353,28 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="F714" t="n">
-        <v>0.765</v>
+        <v>0.63</v>
       </c>
       <c r="G714" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="H714" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="I714" t="n">
-        <v>13703000</v>
+        <v>33606700</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>0.755</v>
+        <v>0.62</v>
       </c>
       <c r="F715" t="n">
-        <v>0.795</v>
+        <v>0.64</v>
       </c>
       <c r="G715" t="n">
-        <v>0.755</v>
+        <v>0.62</v>
       </c>
       <c r="H715" t="n">
-        <v>0.79</v>
+        <v>0.635</v>
       </c>
       <c r="I715" t="n">
-        <v>26263500</v>
+        <v>16288700</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -25423,28 +25423,28 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>0.795</v>
+        <v>0.635</v>
       </c>
       <c r="F716" t="n">
-        <v>0.825</v>
+        <v>0.635</v>
       </c>
       <c r="G716" t="n">
-        <v>0.695</v>
+        <v>0.62</v>
       </c>
       <c r="H716" t="n">
-        <v>0.725</v>
+        <v>0.63</v>
       </c>
       <c r="I716" t="n">
-        <v>87968700</v>
+        <v>9797400</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -25458,28 +25458,28 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="F717" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="G717" t="n">
-        <v>0.67</v>
+        <v>0.625</v>
       </c>
       <c r="H717" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="I717" t="n">
-        <v>38017600</v>
+        <v>19880300</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -25493,28 +25493,28 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0.725</v>
+        <v>0.645</v>
       </c>
       <c r="F718" t="n">
-        <v>0.75</v>
+        <v>0.645</v>
       </c>
       <c r="G718" t="n">
-        <v>0.705</v>
+        <v>0.635</v>
       </c>
       <c r="H718" t="n">
-        <v>0.725</v>
+        <v>0.64</v>
       </c>
       <c r="I718" t="n">
-        <v>20724500</v>
+        <v>8828300</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -25528,28 +25528,28 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="F719" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="G719" t="n">
-        <v>0.71</v>
+        <v>0.635</v>
       </c>
       <c r="H719" t="n">
-        <v>0.71</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I719" t="n">
-        <v>7713000</v>
+        <v>49167500</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -25563,28 +25563,28 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>0.72</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F720" t="n">
-        <v>0.72</v>
+        <v>0.695</v>
       </c>
       <c r="G720" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H720" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="H720" t="n">
-        <v>0.705</v>
-      </c>
       <c r="I720" t="n">
-        <v>6748400</v>
+        <v>17417300</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -25598,28 +25598,28 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>0.705</v>
+        <v>0.695</v>
       </c>
       <c r="F721" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G721" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H721" t="n">
         <v>0.72</v>
       </c>
-      <c r="G721" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0.71</v>
-      </c>
       <c r="I721" t="n">
-        <v>6530500</v>
+        <v>31206700</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25633,28 +25633,28 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.715</v>
+        <v>0.725</v>
       </c>
       <c r="F722" t="n">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="G722" t="n">
-        <v>0.71</v>
+        <v>0.725</v>
       </c>
       <c r="H722" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="I722" t="n">
-        <v>34773700</v>
+        <v>23022300</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -25668,28 +25668,28 @@
         </is>
       </c>
       <c r="E723" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F723" t="n">
         <v>0.765</v>
       </c>
-      <c r="F723" t="n">
-        <v>0.79</v>
-      </c>
       <c r="G723" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="H723" t="n">
-        <v>0.785</v>
+        <v>0.75</v>
       </c>
       <c r="I723" t="n">
-        <v>12876600</v>
+        <v>13703000</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25703,28 +25703,28 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.785</v>
+        <v>0.755</v>
       </c>
       <c r="F724" t="n">
-        <v>0.785</v>
+        <v>0.795</v>
       </c>
       <c r="G724" t="n">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="H724" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I724" t="n">
-        <v>7063200</v>
+        <v>26263500</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25738,28 +25738,28 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>0.78</v>
+        <v>0.795</v>
       </c>
       <c r="F725" t="n">
-        <v>0.86</v>
+        <v>0.825</v>
       </c>
       <c r="G725" t="n">
-        <v>0.78</v>
+        <v>0.695</v>
       </c>
       <c r="H725" t="n">
-        <v>0.855</v>
+        <v>0.725</v>
       </c>
       <c r="I725" t="n">
-        <v>52695900</v>
+        <v>87968700</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25773,28 +25773,28 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>0.865</v>
+        <v>0.71</v>
       </c>
       <c r="F726" t="n">
-        <v>0.875</v>
+        <v>0.72</v>
       </c>
       <c r="G726" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="H726" t="n">
-        <v>0.825</v>
+        <v>0.72</v>
       </c>
       <c r="I726" t="n">
-        <v>30598600</v>
+        <v>38017600</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25808,28 +25808,28 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>0.82</v>
+        <v>0.725</v>
       </c>
       <c r="F727" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G727" t="n">
-        <v>0.8</v>
+        <v>0.705</v>
       </c>
       <c r="H727" t="n">
-        <v>0.83</v>
+        <v>0.725</v>
       </c>
       <c r="I727" t="n">
-        <v>14150900</v>
+        <v>20724500</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25843,28 +25843,28 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>0.835</v>
+        <v>0.73</v>
       </c>
       <c r="F728" t="n">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="G728" t="n">
-        <v>0.835</v>
+        <v>0.71</v>
       </c>
       <c r="H728" t="n">
-        <v>0.845</v>
+        <v>0.71</v>
       </c>
       <c r="I728" t="n">
-        <v>25569100</v>
+        <v>7713000</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25878,28 +25878,28 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="F729" t="n">
-        <v>0.835</v>
+        <v>0.72</v>
       </c>
       <c r="G729" t="n">
-        <v>0.765</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H729" t="n">
-        <v>0.8</v>
+        <v>0.705</v>
       </c>
       <c r="I729" t="n">
-        <v>27655000</v>
+        <v>6748400</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25913,28 +25913,28 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>0.82</v>
+        <v>0.705</v>
       </c>
       <c r="F730" t="n">
-        <v>0.865</v>
+        <v>0.72</v>
       </c>
       <c r="G730" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="H730" t="n">
-        <v>0.855</v>
+        <v>0.71</v>
       </c>
       <c r="I730" t="n">
-        <v>43911400</v>
+        <v>6530500</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25948,28 +25948,28 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>0.85</v>
+        <v>0.715</v>
       </c>
       <c r="F731" t="n">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G731" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="H731" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="I731" t="n">
-        <v>18172300</v>
+        <v>34773700</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25983,28 +25983,28 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>0.835</v>
+        <v>0.765</v>
       </c>
       <c r="F732" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G732" t="n">
-        <v>0.83</v>
+        <v>0.765</v>
       </c>
       <c r="H732" t="n">
-        <v>0.835</v>
+        <v>0.785</v>
       </c>
       <c r="I732" t="n">
-        <v>6960600</v>
+        <v>12876600</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -26018,28 +26018,28 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>0.84</v>
+        <v>0.785</v>
       </c>
       <c r="F733" t="n">
-        <v>0.85</v>
+        <v>0.785</v>
       </c>
       <c r="G733" t="n">
-        <v>0.825</v>
+        <v>0.77</v>
       </c>
       <c r="H733" t="n">
-        <v>0.825</v>
+        <v>0.78</v>
       </c>
       <c r="I733" t="n">
-        <v>9923100</v>
+        <v>7063200</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -26053,28 +26053,28 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F734" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="G734" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="H734" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="I734" t="n">
-        <v>8757000</v>
+        <v>52695900</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -26088,28 +26088,28 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="F735" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="G735" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="H735" t="n">
-        <v>0.84</v>
+        <v>0.825</v>
       </c>
       <c r="I735" t="n">
-        <v>6415600</v>
+        <v>30598600</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -26123,28 +26123,28 @@
         </is>
       </c>
       <c r="E736" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F736" t="n">
         <v>0.84</v>
       </c>
-      <c r="F736" t="n">
-        <v>0.845</v>
-      </c>
       <c r="G736" t="n">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="H736" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I736" t="n">
-        <v>7088200</v>
+        <v>14150900</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -26158,28 +26158,28 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>0.84</v>
+        <v>0.835</v>
       </c>
       <c r="F737" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G737" t="n">
-        <v>0.83</v>
+        <v>0.835</v>
       </c>
       <c r="H737" t="n">
-        <v>0.87</v>
+        <v>0.845</v>
       </c>
       <c r="I737" t="n">
-        <v>34967300</v>
+        <v>25569100</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -26193,28 +26193,28 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.875</v>
+        <v>0.83</v>
       </c>
       <c r="F738" t="n">
-        <v>0.89</v>
+        <v>0.835</v>
       </c>
       <c r="G738" t="n">
-        <v>0.85</v>
+        <v>0.765</v>
       </c>
       <c r="H738" t="n">
-        <v>0.855</v>
+        <v>0.8</v>
       </c>
       <c r="I738" t="n">
-        <v>22150100</v>
+        <v>27655000</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -26228,28 +26228,28 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F739" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="G739" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="H739" t="n">
         <v>0.855</v>
       </c>
       <c r="I739" t="n">
-        <v>6671400</v>
+        <v>43911400</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -26263,28 +26263,28 @@
         </is>
       </c>
       <c r="E740" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F740" t="n">
         <v>0.86</v>
       </c>
-      <c r="F740" t="n">
-        <v>0.875</v>
-      </c>
       <c r="G740" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="H740" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="I740" t="n">
-        <v>10772200</v>
+        <v>18172300</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -26298,28 +26298,28 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>0.86</v>
+        <v>0.835</v>
       </c>
       <c r="F741" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G741" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H741" t="n">
-        <v>0.86</v>
+        <v>0.835</v>
       </c>
       <c r="I741" t="n">
-        <v>5574900</v>
+        <v>6960600</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -26333,28 +26333,28 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F742" t="n">
         <v>0.85</v>
       </c>
       <c r="G742" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="H742" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="I742" t="n">
-        <v>20948400</v>
+        <v>9923100</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -26368,28 +26368,28 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="F743" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="G743" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="H743" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I743" t="n">
-        <v>9242000</v>
+        <v>8757000</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -26403,28 +26403,28 @@
         </is>
       </c>
       <c r="E744" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G744" t="n">
         <v>0.83</v>
       </c>
-      <c r="F744" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G744" t="n">
-        <v>0.785</v>
-      </c>
       <c r="H744" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I744" t="n">
-        <v>13290000</v>
+        <v>6415600</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -26438,28 +26438,28 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="F745" t="n">
-        <v>0.79</v>
+        <v>0.845</v>
       </c>
       <c r="G745" t="n">
-        <v>0.72</v>
+        <v>0.835</v>
       </c>
       <c r="H745" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="I745" t="n">
-        <v>20497100</v>
+        <v>7088200</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -26473,28 +26473,28 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>0.695</v>
+        <v>0.84</v>
       </c>
       <c r="F746" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="G746" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H746" t="n">
-        <v>0.765</v>
+        <v>0.87</v>
       </c>
       <c r="I746" t="n">
-        <v>28964000</v>
+        <v>34967300</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -26508,28 +26508,28 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>0.77</v>
+        <v>0.875</v>
       </c>
       <c r="F747" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G747" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H747" t="n">
-        <v>0.765</v>
+        <v>0.855</v>
       </c>
       <c r="I747" t="n">
-        <v>10110900</v>
+        <v>22150100</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -26543,28 +26543,28 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>0.775</v>
+        <v>0.86</v>
       </c>
       <c r="F748" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="G748" t="n">
-        <v>0.765</v>
+        <v>0.855</v>
       </c>
       <c r="H748" t="n">
-        <v>0.78</v>
+        <v>0.855</v>
       </c>
       <c r="I748" t="n">
-        <v>6914300</v>
+        <v>6671400</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -26578,28 +26578,28 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>0.795</v>
+        <v>0.86</v>
       </c>
       <c r="F749" t="n">
-        <v>0.84</v>
+        <v>0.875</v>
       </c>
       <c r="G749" t="n">
-        <v>0.79</v>
+        <v>0.855</v>
       </c>
       <c r="H749" t="n">
-        <v>0.835</v>
+        <v>0.86</v>
       </c>
       <c r="I749" t="n">
-        <v>16339500</v>
+        <v>10772200</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -26613,28 +26613,28 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>0.835</v>
+        <v>0.86</v>
       </c>
       <c r="F750" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G750" t="n">
         <v>0.85</v>
       </c>
-      <c r="G750" t="n">
-        <v>0.82</v>
-      </c>
       <c r="H750" t="n">
-        <v>0.835</v>
+        <v>0.86</v>
       </c>
       <c r="I750" t="n">
-        <v>9553700</v>
+        <v>5574900</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -26648,28 +26648,28 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="F751" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G751" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="H751" t="n">
-        <v>0.85</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I751" t="n">
-        <v>19876200</v>
+        <v>20948400</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -26683,28 +26683,28 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>0.855</v>
+        <v>0.825</v>
       </c>
       <c r="F752" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="G752" t="n">
-        <v>0.855</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H752" t="n">
-        <v>0.925</v>
+        <v>0.83</v>
       </c>
       <c r="I752" t="n">
-        <v>63966800</v>
+        <v>9242000</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -26718,28 +26718,28 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0.925</v>
+        <v>0.83</v>
       </c>
       <c r="F753" t="n">
-        <v>0.965</v>
+        <v>0.83</v>
       </c>
       <c r="G753" t="n">
-        <v>0.925</v>
+        <v>0.785</v>
       </c>
       <c r="H753" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="I753" t="n">
-        <v>44160000</v>
+        <v>13290000</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26753,28 +26753,28 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F754" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G754" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="H754" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="I754" t="n">
-        <v>11765800</v>
+        <v>20497100</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26788,28 +26788,28 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>0.93</v>
+        <v>0.695</v>
       </c>
       <c r="F755" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G755" t="n">
-        <v>0.915</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H755" t="n">
-        <v>0.92</v>
+        <v>0.765</v>
       </c>
       <c r="I755" t="n">
-        <v>7759000</v>
+        <v>28964000</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26823,28 +26823,28 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="F756" t="n">
-        <v>0.995</v>
+        <v>0.79</v>
       </c>
       <c r="G756" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H756" t="n">
-        <v>0.975</v>
+        <v>0.765</v>
       </c>
       <c r="I756" t="n">
-        <v>46801600</v>
+        <v>10110900</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26858,28 +26858,28 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>0.985</v>
+        <v>0.775</v>
       </c>
       <c r="F757" t="n">
-        <v>0.985</v>
+        <v>0.79</v>
       </c>
       <c r="G757" t="n">
-        <v>0.945</v>
+        <v>0.765</v>
       </c>
       <c r="H757" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="I757" t="n">
-        <v>17172400</v>
+        <v>6914300</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26893,28 +26893,28 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>0.97</v>
+        <v>0.795</v>
       </c>
       <c r="F758" t="n">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="G758" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="H758" t="n">
-        <v>0.96</v>
+        <v>0.835</v>
       </c>
       <c r="I758" t="n">
-        <v>55548300</v>
+        <v>16339500</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26928,28 +26928,28 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>0.96</v>
+        <v>0.835</v>
       </c>
       <c r="F759" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G759" t="n">
-        <v>0.915</v>
+        <v>0.82</v>
       </c>
       <c r="H759" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.835</v>
       </c>
       <c r="I759" t="n">
-        <v>19535700</v>
+        <v>9553700</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26963,28 +26963,28 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="F760" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="G760" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H760" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I760" t="n">
-        <v>20705900</v>
+        <v>19876200</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26998,28 +26998,28 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="F761" t="n">
-        <v>0.915</v>
+        <v>0.93</v>
       </c>
       <c r="G761" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H761" t="n">
-        <v>0.88</v>
+        <v>0.925</v>
       </c>
       <c r="I761" t="n">
-        <v>29477400</v>
+        <v>63966800</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -27033,28 +27033,28 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="F762" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G762" t="n">
         <v>0.925</v>
       </c>
-      <c r="G762" t="n">
-        <v>0.855</v>
-      </c>
       <c r="H762" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I762" t="n">
-        <v>29972500</v>
+        <v>44160000</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -27068,28 +27068,28 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F763" t="n">
-        <v>0.92</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G763" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="H763" t="n">
-        <v>0.875</v>
+        <v>0.93</v>
       </c>
       <c r="I763" t="n">
-        <v>17759700</v>
+        <v>11765800</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -27103,28 +27103,28 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F764" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G764" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="H764" t="n">
-        <v>0.825</v>
+        <v>0.92</v>
       </c>
       <c r="I764" t="n">
-        <v>20961100</v>
+        <v>7759000</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -27138,28 +27138,28 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F765" t="n">
-        <v>0.825</v>
+        <v>0.995</v>
       </c>
       <c r="G765" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H765" t="n">
-        <v>0.795</v>
+        <v>0.975</v>
       </c>
       <c r="I765" t="n">
-        <v>25246200</v>
+        <v>46801600</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -27173,28 +27173,28 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.78</v>
+        <v>0.985</v>
       </c>
       <c r="F766" t="n">
-        <v>0.86</v>
+        <v>0.985</v>
       </c>
       <c r="G766" t="n">
-        <v>0.77</v>
+        <v>0.945</v>
       </c>
       <c r="H766" t="n">
-        <v>0.855</v>
+        <v>0.95</v>
       </c>
       <c r="I766" t="n">
-        <v>28967900</v>
+        <v>17172400</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -27208,28 +27208,28 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0.885</v>
+        <v>0.97</v>
       </c>
       <c r="F767" t="n">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="G767" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="H767" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="I767" t="n">
-        <v>34261800</v>
+        <v>55548300</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -27243,28 +27243,28 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F768" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G768" t="n">
-        <v>0.795</v>
+        <v>0.915</v>
       </c>
       <c r="H768" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I768" t="n">
-        <v>23409500</v>
+        <v>19535700</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -27278,28 +27278,28 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>0.85</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F769" t="n">
-        <v>0.865</v>
+        <v>0.96</v>
       </c>
       <c r="G769" t="n">
-        <v>0.835</v>
+        <v>0.91</v>
       </c>
       <c r="H769" t="n">
-        <v>0.85</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I769" t="n">
-        <v>12541500</v>
+        <v>20705900</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -27313,28 +27313,28 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.84</v>
+        <v>0.875</v>
       </c>
       <c r="F770" t="n">
-        <v>0.85</v>
+        <v>0.915</v>
       </c>
       <c r="G770" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H770" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="I770" t="n">
-        <v>8124300</v>
+        <v>29477400</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -27348,28 +27348,28 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>0.775</v>
+        <v>0.86</v>
       </c>
       <c r="F771" t="n">
-        <v>0.785</v>
+        <v>0.925</v>
       </c>
       <c r="G771" t="n">
-        <v>0.64</v>
+        <v>0.855</v>
       </c>
       <c r="H771" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="I771" t="n">
-        <v>30024500</v>
+        <v>29972500</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -27383,28 +27383,28 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F772" t="n">
-        <v>0.745</v>
+        <v>0.92</v>
       </c>
       <c r="G772" t="n">
-        <v>0.645</v>
+        <v>0.875</v>
       </c>
       <c r="H772" t="n">
-        <v>0.745</v>
+        <v>0.875</v>
       </c>
       <c r="I772" t="n">
-        <v>30432200</v>
+        <v>17759700</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -27418,28 +27418,28 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>0.735</v>
+        <v>0.88</v>
       </c>
       <c r="F773" t="n">
-        <v>0.765</v>
+        <v>0.9</v>
       </c>
       <c r="G773" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H773" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="I773" t="n">
-        <v>28416800</v>
+        <v>20961100</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -27453,53 +27453,368 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F774" t="n">
-        <v>0.675</v>
+        <v>0.825</v>
       </c>
       <c r="G774" t="n">
-        <v>0.615</v>
+        <v>0.75</v>
       </c>
       <c r="H774" t="n">
-        <v>0.625</v>
+        <v>0.795</v>
       </c>
       <c r="I774" t="n">
-        <v>21270900</v>
+        <v>25246200</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I775" t="n">
+        <v>28967900</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I776" t="n">
+        <v>34261800</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G777" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I777" t="n">
+        <v>23409500</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I778" t="n">
+        <v>12541500</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G779" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I779" t="n">
+        <v>8124300</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G780" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I780" t="n">
+        <v>30024500</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I781" t="n">
+        <v>30432200</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I782" t="n">
+        <v>28416800</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I783" t="n">
+        <v>21270900</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B775" t="inlineStr">
+      <c r="B784" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C775" t="inlineStr">
-        <is>
-          <t>5277</t>
-        </is>
-      </c>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>FPGROUP</t>
-        </is>
-      </c>
-      <c r="E775" t="n">
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
         <v>0.545</v>
       </c>
-      <c r="F775" t="n">
+      <c r="F784" t="n">
         <v>0.645</v>
       </c>
-      <c r="G775" t="n">
+      <c r="G784" t="n">
         <v>0.535</v>
       </c>
-      <c r="H775" t="n">
+      <c r="H784" t="n">
         <v>0.61</v>
       </c>
-      <c r="I775" t="n">
+      <c r="I784" t="n">
         <v>35712500</v>
       </c>
     </row>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I784"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27818,6 +27818,41 @@
         <v>35712500</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I785" t="n">
+        <v>21979900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27853,6 +27853,41 @@
         <v>21979900</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I786" t="n">
+        <v>24612900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27888,6 +27888,41 @@
         <v>24612900</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I787" t="n">
+        <v>22249800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I787"/>
+  <dimension ref="A1:I788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27923,6 +27923,41 @@
         <v>22249800</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I788" t="n">
+        <v>18761700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27958,6 +27958,41 @@
         <v>18761700</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I789" t="n">
+        <v>42033300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I789"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27993,6 +27993,41 @@
         <v>42033300</v>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I790" t="n">
+        <v>30359700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28028,6 +28028,41 @@
         <v>30359700</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I791" t="n">
+        <v>40615900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28063,6 +28063,41 @@
         <v>40615900</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I792" t="n">
+        <v>46826100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I792"/>
+  <dimension ref="A1:I793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28098,6 +28098,41 @@
         <v>46826100</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I793" t="n">
+        <v>16842300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I793"/>
+  <dimension ref="A1:I794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28133,6 +28133,41 @@
         <v>16842300</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I794" t="n">
+        <v>26588600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I794"/>
+  <dimension ref="A1:I795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28168,6 +28168,41 @@
         <v>26588600</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G795" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I795" t="n">
+        <v>12062400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I795"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28203,6 +28203,41 @@
         <v>12062400</v>
       </c>
     </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I796" t="n">
+        <v>45189500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28238,6 +28238,41 @@
         <v>45189500</v>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G797" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I797" t="n">
+        <v>60029600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28273,6 +28273,41 @@
         <v>60029600</v>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G798" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I798" t="n">
+        <v>26762100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I798"/>
+  <dimension ref="A1:I799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28308,6 +28308,41 @@
         <v>26762100</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G799" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I799" t="n">
+        <v>18062900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I799"/>
+  <dimension ref="A1:I800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28343,6 +28343,41 @@
         <v>18062900</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G800" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I800" t="n">
+        <v>32848300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28378,6 +28378,41 @@
         <v>32848300</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I801" t="n">
+        <v>58119100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I801"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28413,6 +28413,41 @@
         <v>58119100</v>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G802" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I802" t="n">
+        <v>36774400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28448,6 +28448,41 @@
         <v>36774400</v>
       </c>
     </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G803" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I803" t="n">
+        <v>22029900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28483,6 +28483,41 @@
         <v>22029900</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G804" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I804" t="n">
+        <v>19381000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I804"/>
+  <dimension ref="A1:I805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28518,6 +28518,41 @@
         <v>19381000</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G805" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I805" t="n">
+        <v>18023100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I805"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28553,6 +28553,41 @@
         <v>18023100</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G806" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I806" t="n">
+        <v>28459100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28588,6 +28588,41 @@
         <v>28459100</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G807" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I807" t="n">
+        <v>29780800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I807"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28623,6 +28623,41 @@
         <v>29780800</v>
       </c>
     </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G808" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I808" t="n">
+        <v>8475900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28658,6 +28658,41 @@
         <v>8475900</v>
       </c>
     </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G809" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I809" t="n">
+        <v>55197700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I809"/>
+  <dimension ref="A1:I811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28693,6 +28693,76 @@
         <v>55197700</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G810" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I810" t="n">
+        <v>42818200</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I811" t="n">
+        <v>24819300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I811"/>
+  <dimension ref="A1:I812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28763,6 +28763,41 @@
         <v>24819300</v>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G812" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I812" t="n">
+        <v>21940100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I812"/>
+  <dimension ref="A1:I815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28798,6 +28798,111 @@
         <v>21940100</v>
       </c>
     </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G813" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I813" t="n">
+        <v>16380300</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G814" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I814" t="n">
+        <v>6868100</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I815" t="n">
+        <v>11041600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I815"/>
+  <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28903,6 +28903,41 @@
         <v>11041600</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I816" t="n">
+        <v>8638900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I816"/>
+  <dimension ref="A1:I817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28938,6 +28938,41 @@
         <v>8638900</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I817" t="n">
+        <v>41497000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5277.xlsx
+++ b/data/5277.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I817"/>
+  <dimension ref="A1:I820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28973,6 +28973,111 @@
         <v>41497000</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G818" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I818" t="n">
+        <v>43196900</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G819" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I819" t="n">
+        <v>12544300</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G820" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I820" t="n">
+        <v>11112700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
